--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D2C36-0DFA-4C4C-8439-F1DF55277C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC3CDF0-DD59-4719-86FC-F119452037A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="0" windowWidth="15615" windowHeight="15480" xr2:uid="{E81F8636-C825-4811-AD0C-6761FDD53552}"/>
+    <workbookView xWindow="1965" yWindow="1140" windowWidth="19515" windowHeight="14340" xr2:uid="{E81F8636-C825-4811-AD0C-6761FDD53552}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Sectors:</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Quant</t>
+  </si>
+  <si>
+    <t>Tech</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +477,9 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
@@ -494,6 +500,7 @@
     <hyperlink ref="G5" r:id="rId2" xr:uid="{44BDD60E-4445-4CC6-B61C-5D01F54C5EEC}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{3C6E6711-1811-47B3-BEC4-B240BA75D975}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{4F4C447D-0918-4301-A2F5-EFBA2470BC62}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{D22418D2-6CBE-4383-914C-0937E7E0359E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC3CDF0-DD59-4719-86FC-F119452037A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5252A1F-E489-4D7E-AC63-9112D14D934E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1140" windowWidth="19515" windowHeight="14340" xr2:uid="{E81F8636-C825-4811-AD0C-6761FDD53552}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="23175" windowHeight="14340" xr2:uid="{E81F8636-C825-4811-AD0C-6761FDD53552}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ALL" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Sectors:</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>Tech</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Baltic</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
 </sst>
 </file>
@@ -449,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A412B49-5067-4EB1-A760-46E94149FEE3}">
-  <dimension ref="C3:G7"/>
+  <dimension ref="C3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,13 +500,34 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -501,6 +537,9 @@
     <hyperlink ref="G4" r:id="rId3" xr:uid="{3C6E6711-1811-47B3-BEC4-B240BA75D975}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{4F4C447D-0918-4301-A2F5-EFBA2470BC62}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{D22418D2-6CBE-4383-914C-0937E7E0359E}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{910E0FFD-A30C-4C76-A88A-E13BC6E67D14}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{62C0E6BF-A95F-452B-94CC-0FF1AA5E1A3D}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{611CFBB7-E2D4-4B04-993F-E4E883D1EA15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
